--- a/chart.xlsx
+++ b/chart.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuqiongguo/Desktop/Spark_deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683885B8-81CD-C64D-A3AA-43AEA6C7C7DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9309FED-76A5-E84E-ADBD-B8AC19024708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2200" yWindow="-21100" windowWidth="32560" windowHeight="21100" activeTab="1" xr2:uid="{D6A94105-03C5-1A40-92BC-34B5DA54ADE3}"/>
+    <workbookView xWindow="-5440" yWindow="-21100" windowWidth="27440" windowHeight="21100" activeTab="3" xr2:uid="{D6A94105-03C5-1A40-92BC-34B5DA54ADE3}"/>
   </bookViews>
   <sheets>
     <sheet name="10mrow 3 NODE repartition 0&amp;3" sheetId="1" r:id="rId1"/>
     <sheet name="10mrow 10 NODE repartition 0&amp;10" sheetId="2" r:id="rId2"/>
     <sheet name="20mrow 10 NODE repartition 0&amp;10" sheetId="4" r:id="rId3"/>
+    <sheet name="1gb-10node" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
   <si>
     <t>minpartition</t>
   </si>
@@ -77,7 +79,46 @@
     <t>slave10</t>
   </si>
   <si>
-    <t>minPartitions=10</t>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>power 2</t>
+  </si>
+  <si>
+    <t>calculate variance</t>
+  </si>
+  <si>
+    <t>change y axis to match the same</t>
+  </si>
+  <si>
+    <t>slave1:</t>
+  </si>
+  <si>
+    <t>slave2:</t>
+  </si>
+  <si>
+    <t>slave3:</t>
+  </si>
+  <si>
+    <t>slave4:</t>
+  </si>
+  <si>
+    <t>slave5:</t>
+  </si>
+  <si>
+    <t>slave6:</t>
+  </si>
+  <si>
+    <t>slave7:</t>
+  </si>
+  <si>
+    <t>slave8:</t>
+  </si>
+  <si>
+    <t>slave9:</t>
+  </si>
+  <si>
+    <t>slave10:</t>
   </si>
 </sst>
 </file>
@@ -2595,6 +2636,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1167049264"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4796,6 +4838,7 @@
         <c:axId val="1166232640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4852,6 +4895,7 @@
         <c:axId val="1167049264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -5949,6 +5993,7 @@
         <c:axId val="1166232640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6005,6 +6050,1987 @@
         <c:axId val="1167049264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174161072"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1174161072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1167049264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.05"/>
+          <c:y val="0.77357938849529251"/>
+          <c:w val="0.90696378830083568"/>
+          <c:h val="0.21210080243549503"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Repartition = 0, min partition = 1-10</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0239636141372745E-2"/>
+          <c:y val="1.5596590909090909E-2"/>
+          <c:w val="0.90976036385862724"/>
+          <c:h val="0.68092363099498932"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.5735059331175796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.694424379232499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5746548491562908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.8044306601683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.2834517533807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.575690115761301</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>10.058049113233199</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>12.531097560975599</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>13.326900283432099</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>12.607750725932499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B8C-4E47-BE46-62E3B6437AA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.3040441693627698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8815926009474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.968761904761898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.959400544959102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.295482974287701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.509722540701603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.4180720092915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.9260223953261</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.788386925325497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.299137735420899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B8C-4E47-BE46-62E3B6437AA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.37897232642083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.7182792022792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1287192536047499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9147642133098204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2953856593530801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1856571936056799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6469604519774004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5287697012467598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4136352008186197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.5328403875573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B8C-4E47-BE46-62E3B6437AA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5820921985815599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1983289757872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4855929323819197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8215201060539101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.4448016415868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4181112835291501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.439283284191401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2964866776703596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4481794871794804</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6983935742971799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6B8C-4E47-BE46-62E3B6437AA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.3900945744151301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1550128534704296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3961669505962497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4110841245307997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5247558482852597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5029162956366804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6125622453598902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0764872521246396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5043422404933198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0135976702508902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6B8C-4E47-BE46-62E3B6437AA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.6125637755101998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.373978201634801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7954529855868202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.41925050189605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4786952554744497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.08217089033415</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3449954296160804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5864133016626996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5761941848390393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1940379403793999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6B8C-4E47-BE46-62E3B6437AA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0455957446808508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.179607664233499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.59181347150259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.28732899753307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3729468599033803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1265448804691003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1474440894568598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2892925430210296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1502879581151806</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3396641706376204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6B8C-4E47-BE46-62E3B6437AA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.287383807564002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3244964189794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.760364699810701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.5920520880107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5066223648029302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.340925426774401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6973600364132899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.259165858389899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.3402114967462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.0334620626987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6B8C-4E47-BE46-62E3B6437AA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.4642731926232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.4851897736231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.466001109262301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.857718579234898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.9441099163679</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.846864151816703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.269247058823503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.879635036496303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.478559999999902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.159797375086299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6B8C-4E47-BE46-62E3B6437AA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.37249793786087398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30258834121089301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28731614466170602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29800531914893602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26213925790196901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27952720785013302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27132436744928101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27453987730061302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.313288521199586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31546414924702099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6B8C-4E47-BE46-62E3B6437AA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1102355840"/>
+        <c:axId val="1166232640"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6B8C-4E47-BE46-62E3B6437AA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1174161072"/>
+        <c:axId val="1167049264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1102355840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1166232640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1166232640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1102355840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1167049264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174161072"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1174161072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1167049264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.05"/>
+          <c:y val="0.77357938849529251"/>
+          <c:w val="0.90696378830083568"/>
+          <c:h val="0.21210080243549503"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Repartition = 10, min partition = 1-10</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0239636141372745E-2"/>
+          <c:y val="1.5596590909090909E-2"/>
+          <c:w val="0.90976036385862724"/>
+          <c:h val="0.68092363099498932"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$D$13:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E84-9446-BEA5-EBC2744F1E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$E$13:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E84-9446-BEA5-EBC2744F1E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$F$13:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E84-9446-BEA5-EBC2744F1E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$G$13:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0E84-9446-BEA5-EBC2744F1E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$H$13:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0E84-9446-BEA5-EBC2744F1E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$I$13:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0E84-9446-BEA5-EBC2744F1E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$J$13:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0E84-9446-BEA5-EBC2744F1E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$K$13:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0E84-9446-BEA5-EBC2744F1E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$L$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$L$13:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0E84-9446-BEA5-EBC2744F1E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slave10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$M$13:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0E84-9446-BEA5-EBC2744F1E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1102355840"/>
+        <c:axId val="1166232640"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1gb-10node'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1gb-10node'!$C$13:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0E84-9446-BEA5-EBC2744F1E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1174161072"/>
+        <c:axId val="1167049264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1102355840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1166232640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1166232640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1102355840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1167049264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -6393,6 +8419,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8909,6 +11015,1012 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9578,9 +12690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9610,15 +12722,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9626,6 +12738,87 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE5470B-6047-7F48-9F30-BBD1B9D7DD5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>443089</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66322</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2822D9-C047-1044-84FE-D2D9117D0710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>388056</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>15523</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D186FDE-D428-5F4E-962D-A947F828B9C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10393,8 +13586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC33B4C-A103-9044-9044-F349E44EF964}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11355,22 +14548,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFFE38B-B6C9-774C-9A89-8D70322EFED7}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA44" sqref="AA44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -11411,7 +14607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -11453,7 +14649,7 @@
         <v>4.5820475847152098</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -11495,7 +14691,7 @@
         <v>4.4425010216591696</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -11537,7 +14733,7 @@
         <v>4.9698565240931201</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>0</v>
       </c>
@@ -11579,7 +14775,7 @@
         <v>27.704627795075002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>0</v>
       </c>
@@ -11620,7 +14816,7 @@
         <v>44.379074658254403</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>0</v>
       </c>
@@ -11661,7 +14857,7 @@
         <v>52.030707512764401</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>0</v>
       </c>
@@ -11702,7 +14898,7 @@
         <v>51.632680138803799</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>0</v>
       </c>
@@ -11743,7 +14939,7 @@
         <v>48.519870009285</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>0</v>
       </c>
@@ -11784,7 +14980,7 @@
         <v>36.734767882048203</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>0</v>
       </c>
@@ -11825,7 +15021,7 @@
         <v>47.126977687626699</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -11866,7 +15062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -11908,7 +15104,7 @@
         <v>10.233798695870201</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -11950,7 +15146,7 @@
         <v>12.3195765572261</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -11991,8 +15187,11 @@
       <c r="M15" s="7">
         <v>12.794272207563701</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Z15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -12033,8 +15232,11 @@
       <c r="M16" s="7">
         <v>39.620440825494804</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AA16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>10</v>
       </c>
@@ -12075,8 +15277,11 @@
       <c r="M17" s="7">
         <v>55.768058389577703</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AA17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>10</v>
       </c>
@@ -12117,7 +15322,7 @@
         <v>56.1204114693018</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>10</v>
       </c>
@@ -12158,7 +15363,7 @@
         <v>52.953347969264499</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>10</v>
       </c>
@@ -12198,8 +15403,11 @@
       <c r="M20" s="7">
         <v>43.180379841483401</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Z20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>10</v>
       </c>
@@ -12240,7 +15448,7 @@
         <v>47.964036155049499</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -12281,37 +15489,14 @@
         <v>48.831068536440803</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="3"/>
-    </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -12349,4 +15534,1096 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65B41C5-50FB-3A48-8D5D-AF32544ECBC1}">
+  <dimension ref="A1:AA51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <f>1.9*60</f>
+        <v>114</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4.5735059331175796</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.3040441693627698</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2.37897232642083</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2.5820921985815599</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2.3900945744151301</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2.6125637755101998</v>
+      </c>
+      <c r="J2" s="5">
+        <v>9.0455957446808508</v>
+      </c>
+      <c r="K2" s="5">
+        <v>16.287383807564002</v>
+      </c>
+      <c r="L2" s="5">
+        <v>15.4642731926232</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.37249793786087398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <f>1.3*60</f>
+        <v>78</v>
+      </c>
+      <c r="D3" s="5">
+        <v>15.694424379232499</v>
+      </c>
+      <c r="E3" s="5">
+        <v>11.8815926009474</v>
+      </c>
+      <c r="F3" s="5">
+        <v>11.7182792022792</v>
+      </c>
+      <c r="G3" s="5">
+        <v>12.1983289757872</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4.1550128534704296</v>
+      </c>
+      <c r="I3" s="5">
+        <v>12.373978201634801</v>
+      </c>
+      <c r="J3" s="5">
+        <v>12.179607664233499</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3.3244964189794</v>
+      </c>
+      <c r="L3" s="5">
+        <v>10.4851897736231</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.30258834121089301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>57</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9.5746548491562908</v>
+      </c>
+      <c r="E4" s="5">
+        <v>39.968761904761898</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5.1287192536047499</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5.4855929323819197</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5.3961669505962497</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5.7954529855868202</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5.59181347150259</v>
+      </c>
+      <c r="K4" s="5">
+        <v>16.760364699810701</v>
+      </c>
+      <c r="L4" s="5">
+        <v>40.466001109262301</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.28731614466170602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5">
+        <v>11.8044306601683</v>
+      </c>
+      <c r="E5" s="5">
+        <v>44.959400544959102</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6.9147642133098204</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.8215201060539101</v>
+      </c>
+      <c r="H5" s="5">
+        <v>7.4110841245307997</v>
+      </c>
+      <c r="I5" s="5">
+        <v>7.41925050189605</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7.28732899753307</v>
+      </c>
+      <c r="K5" s="5">
+        <v>21.5920520880107</v>
+      </c>
+      <c r="L5" s="5">
+        <v>45.857718579234898</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.29800531914893602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5">
+        <v>11.2834517533807</v>
+      </c>
+      <c r="E6" s="5">
+        <v>41.295482974287701</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6.2953856593530801</v>
+      </c>
+      <c r="G6" s="5">
+        <v>21.4448016415868</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6.5247558482852597</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6.4786952554744497</v>
+      </c>
+      <c r="J6" s="5">
+        <v>7.3729468599033803</v>
+      </c>
+      <c r="K6" s="5">
+        <v>6.5066223648029302</v>
+      </c>
+      <c r="L6" s="5">
+        <v>45.9441099163679</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.26213925790196901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5">
+        <v>12.575690115761301</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45.509722540701603</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6.1856571936056799</v>
+      </c>
+      <c r="G7" s="5">
+        <v>6.4181112835291501</v>
+      </c>
+      <c r="H7" s="5">
+        <v>6.5029162956366804</v>
+      </c>
+      <c r="I7" s="5">
+        <v>7.08217089033415</v>
+      </c>
+      <c r="J7" s="5">
+        <v>7.1265448804691003</v>
+      </c>
+      <c r="K7" s="5">
+        <v>23.340925426774401</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45.846864151816703</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.27952720785013302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10.058049113233199</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43.4180720092915</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6.6469604519774004</v>
+      </c>
+      <c r="G8" s="5">
+        <v>22.439283284191401</v>
+      </c>
+      <c r="H8" s="5">
+        <v>6.6125622453598902</v>
+      </c>
+      <c r="I8" s="5">
+        <v>7.3449954296160804</v>
+      </c>
+      <c r="J8" s="5">
+        <v>7.1474440894568598</v>
+      </c>
+      <c r="K8" s="5">
+        <v>6.6973600364132899</v>
+      </c>
+      <c r="L8" s="5">
+        <v>44.269247058823503</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.27132436744928101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4">
+        <v>12.531097560975599</v>
+      </c>
+      <c r="E9" s="5">
+        <v>46.9260223953261</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7.5287697012467598</v>
+      </c>
+      <c r="G9" s="5">
+        <v>7.2964866776703596</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7.0764872521246396</v>
+      </c>
+      <c r="I9" s="5">
+        <v>7.5864133016626996</v>
+      </c>
+      <c r="J9" s="5">
+        <v>7.2892925430210296</v>
+      </c>
+      <c r="K9" s="5">
+        <v>35.259165858389899</v>
+      </c>
+      <c r="L9" s="5">
+        <v>44.879635036496303</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.27453987730061302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4">
+        <v>13.326900283432099</v>
+      </c>
+      <c r="E10" s="5">
+        <v>41.788386925325497</v>
+      </c>
+      <c r="F10" s="5">
+        <v>7.4136352008186197</v>
+      </c>
+      <c r="G10" s="5">
+        <v>7.4481794871794804</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7.5043422404933198</v>
+      </c>
+      <c r="I10" s="5">
+        <v>8.5761941848390393</v>
+      </c>
+      <c r="J10" s="5">
+        <v>8.1502879581151806</v>
+      </c>
+      <c r="K10" s="5">
+        <v>47.3402114967462</v>
+      </c>
+      <c r="L10" s="5">
+        <v>41.478559999999902</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.313288521199586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12.607750725932499</v>
+      </c>
+      <c r="E11" s="5">
+        <v>34.299137735420899</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43.5328403875573</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6.6983935742971799</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7.0135976702508902</v>
+      </c>
+      <c r="I11" s="5">
+        <v>7.1940379403793999</v>
+      </c>
+      <c r="J11" s="5">
+        <v>7.3396641706376204</v>
+      </c>
+      <c r="K11" s="5">
+        <v>19.0334620626987</v>
+      </c>
+      <c r="L11" s="5">
+        <v>34.159797375086299</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.31546414924702099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="Z15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="AA16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="AA17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="Z20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6">
+        <v>9</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD5E16C-BB7F-6641-B129-6997AAF82C59}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>13.326900283432099</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>41.788386925325497</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7.4136352008186197</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7.4481794871794804</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7.5043422404933198</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.5761941848390393</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>8.1502879581151806</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>47.3402114967462</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>41.478559999999902</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0.313288521199586</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>12.607750725932499</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>34.299137735420899</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>43.5328403875573</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>6.6983935742971799</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>7.0135976702508902</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>7.1940379403793999</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>7.3396641706376204</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>19.0334620626987</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>34.159797375086299</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.31546414924702099</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>